--- a/biology/Histoire de la zoologie et de la botanique/Étienne_Charles_René_Souèges/Étienne_Charles_René_Souèges.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Étienne_Charles_René_Souèges/Étienne_Charles_René_Souèges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Charles_Ren%C3%A9_Sou%C3%A8ges</t>
+          <t>Étienne_Charles_René_Souèges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Charles René Souèges, né le 24 décembre 1876 à Lamontjoie (Lot-et-Garonne) et mort le 4 septembre 1967[1] à Nogent-sur-Marne, est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Charles René Souèges, né le 24 décembre 1876 à Lamontjoie (Lot-et-Garonne) et mort le 4 septembre 1967 à Nogent-sur-Marne, est un botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Charles_Ren%C3%A9_Sou%C3%A8ges</t>
+          <t>Étienne_Charles_René_Souèges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est président de la Société botanique de France en 1938.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Charles_Ren%C3%A9_Sou%C3%A8ges</t>
+          <t>Étienne_Charles_René_Souèges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Vie végétale,  la dynamique de la vie, Flammarion, Bibliothèque de philosophie scientifique, 1949
 La Vie végétale, la cinématique de la vie, Flammarion, Bibliothèque de philosophie scientifique, 1954</t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Charles_Ren%C3%A9_Sou%C3%A8ges</t>
+          <t>Étienne_Charles_René_Souèges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titres et travaux scientifiques de S. Souèges, Archives de l’Académie des sciences, Paris, 1934 et 1937
 R. Heim, Notice nécrologique sur René Souèges, in Comptes rendus de l'Académie des sciences (CRAS) 265, 1967, Vie académique, p. 96-101
